--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_3_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_3_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.81371913963669, 50.06824902900151]</t>
+          <t>[49.813737449918044, 50.06823071872015]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.99484310955936, 50.16989066140521]</t>
+          <t>[49.99485130692839, 50.169882464036185]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.93189312081085, 50.21194730122931]</t>
+          <t>[49.93364380700902, 50.21019661503114]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.97135281692615, 50.123447978478914]</t>
+          <t>[49.971461934704706, 50.12333886070036]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.85987427777458, 50.196501016020534]</t>
+          <t>[49.865411375166424, 50.19096391862869]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.889895898677516, 50.066635135350715]</t>
+          <t>[49.889935361648625, 50.066595672379606]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.8284071966441, 50.14549021432547]</t>
+          <t>[49.82575597582388, 50.14814143514569]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.98860830813617, 50.16549249502355]</t>
+          <t>[49.9885351504619, 50.16556565269782]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.92506894282157, 50.16519790841134]</t>
+          <t>[49.92486771126618, 50.16539913996673]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.949044704917696, 50.099441153855736]</t>
+          <t>[49.94899564660623, 50.099490212167204]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.93650489442779, 50.17314365841212]</t>
+          <t>[49.93640770118993, 50.173240851649986]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.98933242765688, 50.15268568330527]</t>
+          <t>[49.989318430417, 50.152699680545155]</t>
         </is>
       </c>
       <c r="V7" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_3_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_3_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.813737449918044, 50.06823071872015]</t>
+          <t>[49.81393081267626, 50.068037355961934]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.99485130692839, 50.169882464036185]</t>
+          <t>[49.99486023152268, 50.169873539441895]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.93364380700902, 50.21019661503114]</t>
+          <t>[49.93122655316999, 50.212613868870164]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.971461934704706, 50.12333886070036]</t>
+          <t>[49.971498344362125, 50.12330245104294]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.865411375166424, 50.19096391862869]</t>
+          <t>[49.85370955221128, 50.202665741583836]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.889935361648625, 50.066595672379606]</t>
+          <t>[49.89005187656637, 50.06647915746186]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.82575597582388, 50.14814143514569]</t>
+          <t>[49.826193723681236, 50.147703687288335]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.9885351504619, 50.16556565269782]</t>
+          <t>[49.98862836388844, 50.165472439271284]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.92486771126618, 50.16539913996673]</t>
+          <t>[49.92729824624834, 50.16296860498457]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.94899564660623, 50.099490212167204]</t>
+          <t>[49.94905556027636, 50.09943029849707]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.93640770118993, 50.173240851649986]</t>
+          <t>[49.93575280118259, 50.17389575165733]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.989318430417, 50.152699680545155]</t>
+          <t>[49.98936753513833, 50.15265057582383]</t>
         </is>
       </c>
       <c r="V7" t="n">
